--- a/Excel TEST.xlsx
+++ b/Excel TEST.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Code\03.-Python-Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D7DC5C7E-97D3-4BC7-B737-3679C3DEA7B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B74F52-0BCF-46B0-9045-D63B82CE32D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
+    <workbookView xWindow="29490" yWindow="7770" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pop_2014 - 복사본" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
-  <si>
-    <t>이름</t>
-  </si>
-  <si>
-    <t>취미</t>
-  </si>
-  <si>
-    <t>나이</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>1인성</t>
   </si>
@@ -66,12 +57,32 @@
   </si>
   <si>
     <t>11인성</t>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>총인구수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>행정구역명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자 인구수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자 인구수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1016,145 +1027,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>18</v>
       </c>
+      <c r="D2">
+        <v>456</v>
+      </c>
+      <c r="E2">
+        <v>654</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>19</v>
       </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>20</v>
       </c>
+      <c r="D4">
+        <v>458</v>
+      </c>
+      <c r="E4">
+        <v>535</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>21</v>
       </c>
+      <c r="D5">
+        <v>122354</v>
+      </c>
+      <c r="E5">
+        <v>45</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
         <v>22</v>
       </c>
+      <c r="D6">
+        <v>56</v>
+      </c>
+      <c r="E6">
+        <v>544</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>23</v>
       </c>
+      <c r="D7">
+        <v>461</v>
+      </c>
+      <c r="E7">
+        <v>65</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
+      <c r="D8">
+        <v>434</v>
+      </c>
+      <c r="E8">
+        <v>660</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
+      <c r="D9">
+        <v>5344</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>26</v>
       </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+      <c r="E10">
+        <v>54</v>
+      </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>27</v>
       </c>
+      <c r="D11">
+        <v>465</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>28</v>
+      </c>
+      <c r="D12">
+        <v>466</v>
+      </c>
+      <c r="E12">
+        <v>664</v>
       </c>
     </row>
   </sheetData>

--- a/Excel TEST.xlsx
+++ b/Excel TEST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS Code\03.-Python-Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B74F52-0BCF-46B0-9045-D63B82CE32D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC254A14-008B-4769-8CDA-1A5093DAD0E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="7770" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30900" yWindow="3765" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pop_2014 - 복사본" sheetId="1" r:id="rId1"/>
@@ -20,45 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
-  <si>
-    <t>1인성</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>수영</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>2인성</t>
-  </si>
-  <si>
-    <t>3인성</t>
-  </si>
-  <si>
-    <t>4인성</t>
-  </si>
-  <si>
-    <t>5인성</t>
-  </si>
-  <si>
-    <t>6인성</t>
-  </si>
-  <si>
-    <t>7인성</t>
-  </si>
-  <si>
-    <t>8인성</t>
-  </si>
-  <si>
-    <t>9인성</t>
-  </si>
-  <si>
-    <t>10인성</t>
-  </si>
-  <si>
-    <t>11인성</t>
-  </si>
-  <si>
     <t>위치</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -76,6 +43,58 @@
   </si>
   <si>
     <t>여자 인구수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래금액</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>축구</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대전</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>송도</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>이천</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>강경</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>거제</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1028,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C4" sqref="C4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1040,29 +1059,35 @@
     <col min="4" max="7" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
       <c r="C2">
         <v>18</v>
@@ -1073,13 +1098,19 @@
       <c r="E2">
         <v>654</v>
       </c>
+      <c r="F2">
+        <v>456</v>
+      </c>
+      <c r="G2">
+        <v>654</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>19</v>
@@ -1090,13 +1121,19 @@
       <c r="E3">
         <v>7</v>
       </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>20</v>
@@ -1107,13 +1144,19 @@
       <c r="E4">
         <v>535</v>
       </c>
+      <c r="F4">
+        <v>458</v>
+      </c>
+      <c r="G4">
+        <v>535</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>21</v>
@@ -1124,13 +1167,19 @@
       <c r="E5">
         <v>45</v>
       </c>
+      <c r="F5">
+        <v>122354</v>
+      </c>
+      <c r="G5">
+        <v>125</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -1141,13 +1190,19 @@
       <c r="E6">
         <v>544</v>
       </c>
+      <c r="F6">
+        <v>56</v>
+      </c>
+      <c r="G6">
+        <v>32654</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -1158,13 +1213,19 @@
       <c r="E7">
         <v>65</v>
       </c>
+      <c r="F7">
+        <v>461</v>
+      </c>
+      <c r="G7">
+        <v>65</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -1175,13 +1236,19 @@
       <c r="E8">
         <v>660</v>
       </c>
+      <c r="F8">
+        <v>434</v>
+      </c>
+      <c r="G8">
+        <v>12456</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
       </c>
       <c r="C9">
         <v>25</v>
@@ -1192,13 +1259,19 @@
       <c r="E9">
         <v>4</v>
       </c>
+      <c r="F9">
+        <v>5344</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>26</v>
@@ -1209,13 +1282,19 @@
       <c r="E10">
         <v>54</v>
       </c>
+      <c r="F10">
+        <v>56</v>
+      </c>
+      <c r="G10">
+        <v>54</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>27</v>
@@ -1226,13 +1305,19 @@
       <c r="E11">
         <v>5</v>
       </c>
+      <c r="F11">
+        <v>465</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>28</v>
@@ -1241,6 +1326,12 @@
         <v>466</v>
       </c>
       <c r="E12">
+        <v>664</v>
+      </c>
+      <c r="F12">
+        <v>466</v>
+      </c>
+      <c r="G12">
         <v>664</v>
       </c>
     </row>
